--- a/WhmCalcNew/Data/UnitStats.xlsx
+++ b/WhmCalcNew/Data/UnitStats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Imperium</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Wounds</t>
+  </si>
+  <si>
+    <t>Dreadnought</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +451,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WhmCalcNew/Data/UnitStats.xlsx
+++ b/WhmCalcNew/Data/UnitStats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Imperium</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Chaos</t>
   </si>
   <si>
-    <t>Legionary</t>
-  </si>
-  <si>
     <t>Faction</t>
   </si>
   <si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>Dreadnought</t>
+  </si>
+  <si>
+    <t>Invuln</t>
+  </si>
+  <si>
+    <t>Terminator</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,24 +403,27 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="F1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,30 +439,36 @@
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -466,6 +478,9 @@
       </c>
       <c r="E4">
         <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
